--- a/tests/trivial/scripts_params.xlsx
+++ b/tests/trivial/scripts_params.xlsx
@@ -452,7 +452,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -641,17 +641,6 @@
         <color indexed="64"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
@@ -800,7 +789,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -813,17 +802,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="34" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="34" borderId="22" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1137,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1151,7 +1138,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,26 +1152,26 @@
     <col min="7" max="7" width="32.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="18" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+    <row r="1" spans="1:7" s="16" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1192,23 +1179,23 @@
       <c r="A2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="11">
-        <v>54</v>
-      </c>
-      <c r="C2" s="12">
-        <v>1800</v>
-      </c>
-      <c r="D2" s="12">
-        <v>4</v>
-      </c>
-      <c r="E2" s="12">
-        <v>175500</v>
-      </c>
-      <c r="F2" s="12">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G2" s="13">
-        <v>44285.711235069444</v>
+      <c r="B2" s="7">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>44285.71193287037</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1224,7 +1211,7 @@
       <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="11">
         <v>20</v>
       </c>
       <c r="F3" s="2">
@@ -1247,7 +1234,7 @@
       <c r="D4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>175500</v>
       </c>
       <c r="F4" s="1">
@@ -1270,7 +1257,7 @@
       <c r="D5" s="2">
         <v>4</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="11">
         <v>175500</v>
       </c>
       <c r="F5" s="2">
@@ -1293,7 +1280,7 @@
       <c r="D6" s="1">
         <v>4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <v>175500</v>
       </c>
       <c r="F6" s="1">
@@ -1316,7 +1303,7 @@
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="11">
         <v>175500</v>
       </c>
       <c r="F7" s="2">
@@ -1339,7 +1326,7 @@
       <c r="D8" s="1">
         <v>4</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="11">
         <v>175500</v>
       </c>
       <c r="F8" s="1">
@@ -1362,7 +1349,7 @@
       <c r="D9" s="2">
         <v>4</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="11">
         <v>175500</v>
       </c>
       <c r="F9" s="2">
@@ -1385,7 +1372,7 @@
       <c r="D10" s="1">
         <v>4</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>175500</v>
       </c>
       <c r="F10" s="1">
@@ -1408,7 +1395,7 @@
       <c r="D11" s="2">
         <v>4</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="11">
         <v>175500</v>
       </c>
       <c r="F11" s="2">
@@ -1431,7 +1418,7 @@
       <c r="D12" s="1">
         <v>4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="11">
         <v>175500</v>
       </c>
       <c r="F12" s="1">
@@ -1454,7 +1441,7 @@
       <c r="D13" s="2">
         <v>4</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>175500</v>
       </c>
       <c r="F13" s="2">
@@ -1477,7 +1464,7 @@
       <c r="D14" s="1">
         <v>4</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <v>175500</v>
       </c>
       <c r="F14" s="1">
@@ -1500,7 +1487,7 @@
       <c r="D15" s="2">
         <v>4</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <v>175500</v>
       </c>
       <c r="F15" s="2">
@@ -1523,7 +1510,7 @@
       <c r="D16" s="1">
         <v>4</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <v>175500</v>
       </c>
       <c r="F16" s="1">
@@ -1546,7 +1533,7 @@
       <c r="D17" s="2">
         <v>4</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="11">
         <v>175500</v>
       </c>
       <c r="F17" s="2">
@@ -1569,7 +1556,7 @@
       <c r="D18" s="1">
         <v>4</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="11">
         <v>175500</v>
       </c>
       <c r="F18" s="1">
@@ -1592,7 +1579,7 @@
       <c r="D19" s="2">
         <v>4</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="11">
         <v>175500</v>
       </c>
       <c r="F19" s="2">
@@ -1615,7 +1602,7 @@
       <c r="D20" s="1">
         <v>4</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="11">
         <v>175500</v>
       </c>
       <c r="F20" s="1">
@@ -1638,7 +1625,7 @@
       <c r="D21" s="2">
         <v>4</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="11">
         <v>175500</v>
       </c>
       <c r="F21" s="2">
@@ -1661,7 +1648,7 @@
       <c r="D22" s="1">
         <v>4</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="11">
         <v>175500</v>
       </c>
       <c r="F22" s="1">
@@ -1684,7 +1671,7 @@
       <c r="D23" s="2">
         <v>4</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="11">
         <v>175500</v>
       </c>
       <c r="F23" s="2">
@@ -1707,7 +1694,7 @@
       <c r="D24" s="1">
         <v>4</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="11">
         <v>175500</v>
       </c>
       <c r="F24" s="1">
@@ -1730,7 +1717,7 @@
       <c r="D25" s="2">
         <v>4</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="11">
         <v>175500</v>
       </c>
       <c r="F25" s="2">
@@ -1753,7 +1740,7 @@
       <c r="D26" s="1">
         <v>4</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="11">
         <v>175500</v>
       </c>
       <c r="F26" s="1">
@@ -1764,25 +1751,25 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="20">
+      <c r="B27" s="18">
         <v>11</v>
       </c>
-      <c r="C27" s="21">
-        <v>1800</v>
-      </c>
-      <c r="D27" s="21">
-        <v>4</v>
-      </c>
-      <c r="E27" s="12">
-        <v>175500</v>
-      </c>
-      <c r="F27" s="21">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G27" s="22">
+      <c r="C27" s="19">
+        <v>1800</v>
+      </c>
+      <c r="D27" s="19">
+        <v>4</v>
+      </c>
+      <c r="E27" s="11">
+        <v>175500</v>
+      </c>
+      <c r="F27" s="19">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G27" s="20">
         <v>44285.711235069444</v>
       </c>
     </row>
